--- a/webvars_rs485.xlsx
+++ b/webvars_rs485.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="588">
   <si>
     <t>Чтение</t>
   </si>
@@ -7405,6 +7405,9 @@
   </si>
   <si>
     <t>Конец блока (последнее слово) RTC RAM</t>
+  </si>
+  <si>
+    <t>wifi_aps_id</t>
   </si>
 </sst>
 </file>
@@ -7871,7 +7874,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -8109,11 +8112,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -8140,6 +8145,15 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -8208,7 +8222,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8252,10 +8266,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8336,7 +8347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8351,10 +8362,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8727,34 +8738,34 @@
       </c>
     </row>
     <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="26"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
@@ -8779,11 +8790,11 @@
       </c>
     </row>
     <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" spans="2:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
@@ -8849,8 +8860,8 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="25"/>
-      <c r="C17" s="25" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -8858,15 +8869,15 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="30"/>
-      <c r="C19" s="30" t="s">
+      <c r="B19" s="29"/>
+      <c r="C19" s="29" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -8874,8 +8885,8 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="11" t="s">
         <v>32</v>
       </c>
@@ -8944,11 +8955,11 @@
       </c>
     </row>
     <row r="28" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="23"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="22"/>
     </row>
     <row r="29" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
@@ -9068,17 +9079,17 @@
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="27"/>
+      <c r="C42" s="26"/>
       <c r="D42" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="29"/>
-      <c r="C43" s="31"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="30"/>
       <c r="D43" s="11" t="s">
         <v>76</v>
       </c>
@@ -9104,8 +9115,8 @@
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="25"/>
-      <c r="C46" s="25" t="s">
+      <c r="B46" s="24"/>
+      <c r="C46" s="24" t="s">
         <v>82</v>
       </c>
       <c r="D46" s="12" t="s">
@@ -9113,8 +9124,8 @@
       </c>
     </row>
     <row r="47" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
       <c r="D47" s="11" t="s">
         <v>84</v>
       </c>
@@ -9129,17 +9140,17 @@
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="27"/>
+      <c r="C49" s="26"/>
       <c r="D49" s="6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="29"/>
-      <c r="C50" s="31"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="30"/>
       <c r="D50" s="11" t="s">
         <v>89</v>
       </c>
@@ -9167,10 +9178,10 @@
       </c>
     </row>
     <row r="53" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="24" t="s">
         <v>97</v>
       </c>
       <c r="D53" s="6" t="s">
@@ -9178,8 +9189,8 @@
       </c>
     </row>
     <row r="54" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
       <c r="D54" s="13" t="s">
         <v>99</v>
       </c>
@@ -9212,10 +9223,10 @@
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="24" t="s">
         <v>107</v>
       </c>
       <c r="D58" s="6" t="s">
@@ -9223,8 +9234,8 @@
       </c>
     </row>
     <row r="59" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
       <c r="D59" s="13" t="s">
         <v>109</v>
       </c>
@@ -9248,10 +9259,10 @@
       </c>
     </row>
     <row r="62" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B62" s="25" t="s">
+      <c r="B62" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C62" s="24" t="s">
         <v>115</v>
       </c>
       <c r="D62" s="6" t="s">
@@ -9259,8 +9270,8 @@
       </c>
     </row>
     <row r="63" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="29"/>
-      <c r="C63" s="29"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
       <c r="D63" s="13" t="s">
         <v>117</v>
       </c>
@@ -9275,10 +9286,10 @@
       </c>
     </row>
     <row r="65" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="24" t="s">
         <v>121</v>
       </c>
       <c r="D65" s="6" t="s">
@@ -9286,18 +9297,18 @@
       </c>
     </row>
     <row r="66" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
       <c r="D66" s="13" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="67" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="21" t="s">
+      <c r="B67" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C67" s="22"/>
-      <c r="D67" s="23"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="22"/>
     </row>
     <row r="68" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
@@ -9309,11 +9320,11 @@
       </c>
     </row>
     <row r="69" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="21" t="s">
+      <c r="B69" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C69" s="22"/>
-      <c r="D69" s="23"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="22"/>
     </row>
     <row r="70" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
@@ -9402,7 +9413,9 @@
       </c>
     </row>
     <row r="78" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="8"/>
+      <c r="B78" s="8" t="s">
+        <v>587</v>
+      </c>
       <c r="C78" s="9" t="s">
         <v>151</v>
       </c>
@@ -9429,10 +9442,10 @@
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="25" t="s">
+      <c r="B81" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C81" s="25" t="s">
+      <c r="C81" s="24" t="s">
         <v>158</v>
       </c>
       <c r="D81" s="6" t="s">
@@ -9440,17 +9453,17 @@
       </c>
     </row>
     <row r="82" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="29"/>
-      <c r="C82" s="29"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="28"/>
       <c r="D82" s="11" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="83" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B83" s="30" t="s">
+      <c r="B83" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="C83" s="30" t="s">
+      <c r="C83" s="29" t="s">
         <v>162</v>
       </c>
       <c r="D83" s="6" t="s">
@@ -9458,8 +9471,8 @@
       </c>
     </row>
     <row r="84" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="29"/>
-      <c r="C84" s="29"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="28"/>
       <c r="D84" s="11" t="s">
         <v>164</v>
       </c>
@@ -9483,11 +9496,11 @@
       </c>
     </row>
     <row r="87" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="21" t="s">
+      <c r="B87" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="C87" s="22"/>
-      <c r="D87" s="23"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="22"/>
     </row>
     <row r="88" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
@@ -9640,11 +9653,11 @@
       </c>
     </row>
     <row r="102" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="21" t="s">
+      <c r="B102" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="C102" s="22"/>
-      <c r="D102" s="23"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="22"/>
     </row>
     <row r="103" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
@@ -9790,17 +9803,17 @@
       </c>
     </row>
     <row r="116" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="21" t="s">
+      <c r="B116" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="C116" s="22"/>
-      <c r="D116" s="23"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="22"/>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B117" s="25" t="s">
+      <c r="B117" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="C117" s="25" t="s">
+      <c r="C117" s="24" t="s">
         <v>242</v>
       </c>
       <c r="D117" s="6" t="s">
@@ -9808,8 +9821,8 @@
       </c>
     </row>
     <row r="118" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="29"/>
-      <c r="C118" s="29"/>
+      <c r="B118" s="28"/>
+      <c r="C118" s="28"/>
       <c r="D118" s="14" t="s">
         <v>244</v>
       </c>
@@ -9870,10 +9883,10 @@
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B124" s="25" t="s">
+      <c r="B124" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="C124" s="25" t="s">
+      <c r="C124" s="24" t="s">
         <v>261</v>
       </c>
       <c r="D124" s="15" t="s">
@@ -9881,9 +9894,9 @@
       </c>
     </row>
     <row r="125" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="29"/>
-      <c r="C125" s="29"/>
-      <c r="D125" s="16" t="s">
+      <c r="B125" s="28"/>
+      <c r="C125" s="28"/>
+      <c r="D125" s="11" t="s">
         <v>263</v>
       </c>
     </row>
@@ -9944,11 +9957,11 @@
       </c>
     </row>
     <row r="132" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="21" t="s">
+      <c r="B132" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="C132" s="22"/>
-      <c r="D132" s="23"/>
+      <c r="C132" s="21"/>
+      <c r="D132" s="22"/>
     </row>
     <row r="133" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
@@ -9969,11 +9982,11 @@
       </c>
     </row>
     <row r="135" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="21" t="s">
+      <c r="B135" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="C135" s="22"/>
-      <c r="D135" s="23"/>
+      <c r="C135" s="21"/>
+      <c r="D135" s="22"/>
     </row>
     <row r="136" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B136" s="8"/>
@@ -10120,10 +10133,10 @@
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B152" s="25" t="s">
+      <c r="B152" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="C152" s="25" t="s">
+      <c r="C152" s="24" t="s">
         <v>316</v>
       </c>
       <c r="D152" s="6" t="s">
@@ -10131,18 +10144,18 @@
       </c>
     </row>
     <row r="153" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="26"/>
-      <c r="C153" s="26"/>
+      <c r="B153" s="25"/>
+      <c r="C153" s="25"/>
       <c r="D153" s="14" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="154" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="21" t="s">
+      <c r="B154" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="C154" s="22"/>
-      <c r="D154" s="23"/>
+      <c r="C154" s="21"/>
+      <c r="D154" s="22"/>
     </row>
     <row r="155" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
@@ -10181,17 +10194,17 @@
       </c>
     </row>
     <row r="159" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="21" t="s">
+      <c r="B159" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="C159" s="22"/>
-      <c r="D159" s="23"/>
+      <c r="C159" s="21"/>
+      <c r="D159" s="22"/>
     </row>
     <row r="160" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B160" s="25" t="s">
+      <c r="B160" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="C160" s="25" t="s">
+      <c r="C160" s="24" t="s">
         <v>330</v>
       </c>
       <c r="D160" s="6" t="s">
@@ -10199,17 +10212,17 @@
       </c>
     </row>
     <row r="161" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="29"/>
-      <c r="C161" s="29"/>
+      <c r="B161" s="28"/>
+      <c r="C161" s="28"/>
       <c r="D161" s="13" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="162" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B162" s="30" t="s">
+      <c r="B162" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C162" s="30" t="s">
+      <c r="C162" s="29" t="s">
         <v>334</v>
       </c>
       <c r="D162" s="6" t="s">
@@ -10217,17 +10230,17 @@
       </c>
     </row>
     <row r="163" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="29"/>
-      <c r="C163" s="29"/>
+      <c r="B163" s="28"/>
+      <c r="C163" s="28"/>
       <c r="D163" s="13" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="164" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B164" s="30" t="s">
+      <c r="B164" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="C164" s="30" t="s">
+      <c r="C164" s="29" t="s">
         <v>337</v>
       </c>
       <c r="D164" s="6" t="s">
@@ -10235,15 +10248,15 @@
       </c>
     </row>
     <row r="165" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="29"/>
-      <c r="C165" s="29"/>
+      <c r="B165" s="28"/>
+      <c r="C165" s="28"/>
       <c r="D165" s="13" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B166" s="30"/>
-      <c r="C166" s="30" t="s">
+      <c r="B166" s="29"/>
+      <c r="C166" s="29" t="s">
         <v>339</v>
       </c>
       <c r="D166" s="6" t="s">
@@ -10251,22 +10264,22 @@
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B167" s="24"/>
-      <c r="C167" s="24"/>
-      <c r="D167" s="18" t="s">
+      <c r="B167" s="23"/>
+      <c r="C167" s="23"/>
+      <c r="D167" s="17" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="168" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="29"/>
-      <c r="C168" s="29"/>
+      <c r="B168" s="28"/>
+      <c r="C168" s="28"/>
       <c r="D168" s="14" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B169" s="30"/>
-      <c r="C169" s="30" t="s">
+      <c r="B169" s="29"/>
+      <c r="C169" s="29" t="s">
         <v>343</v>
       </c>
       <c r="D169" s="6" t="s">
@@ -10274,40 +10287,40 @@
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B170" s="24"/>
-      <c r="C170" s="24"/>
-      <c r="D170" s="18" t="s">
+      <c r="B170" s="23"/>
+      <c r="C170" s="23"/>
+      <c r="D170" s="17" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="171" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="29"/>
-      <c r="C171" s="29"/>
+      <c r="B171" s="28"/>
+      <c r="C171" s="28"/>
       <c r="D171" s="14" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B172" s="30" t="s">
+      <c r="B172" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="C172" s="30"/>
+      <c r="C172" s="29"/>
       <c r="D172" s="6" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="173" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="29"/>
-      <c r="C173" s="29"/>
+      <c r="B173" s="28"/>
+      <c r="C173" s="28"/>
       <c r="D173" s="14" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B174" s="30" t="s">
+      <c r="B174" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="C174" s="30" t="s">
+      <c r="C174" s="29" t="s">
         <v>348</v>
       </c>
       <c r="D174" s="6" t="s">
@@ -10315,22 +10328,22 @@
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B175" s="24"/>
-      <c r="C175" s="24"/>
-      <c r="D175" s="18" t="s">
+      <c r="B175" s="23"/>
+      <c r="C175" s="23"/>
+      <c r="D175" s="17" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="176" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="29"/>
-      <c r="C176" s="29"/>
+      <c r="B176" s="28"/>
+      <c r="C176" s="28"/>
       <c r="D176" s="14" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B177" s="30"/>
-      <c r="C177" s="30" t="s">
+      <c r="B177" s="29"/>
+      <c r="C177" s="29" t="s">
         <v>351</v>
       </c>
       <c r="D177" s="6" t="s">
@@ -10338,22 +10351,22 @@
       </c>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B178" s="24"/>
-      <c r="C178" s="24"/>
-      <c r="D178" s="18" t="s">
+      <c r="B178" s="23"/>
+      <c r="C178" s="23"/>
+      <c r="D178" s="17" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="179" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="29"/>
-      <c r="C179" s="29"/>
+      <c r="B179" s="28"/>
+      <c r="C179" s="28"/>
       <c r="D179" s="14" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B180" s="30"/>
-      <c r="C180" s="30" t="s">
+      <c r="B180" s="29"/>
+      <c r="C180" s="29" t="s">
         <v>354</v>
       </c>
       <c r="D180" s="6" t="s">
@@ -10361,24 +10374,24 @@
       </c>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B181" s="24"/>
-      <c r="C181" s="24"/>
-      <c r="D181" s="18" t="s">
+      <c r="B181" s="23"/>
+      <c r="C181" s="23"/>
+      <c r="D181" s="17" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="182" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="29"/>
-      <c r="C182" s="29"/>
+      <c r="B182" s="28"/>
+      <c r="C182" s="28"/>
       <c r="D182" s="14" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B183" s="30" t="s">
+      <c r="B183" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="C183" s="30" t="s">
+      <c r="C183" s="29" t="s">
         <v>358</v>
       </c>
       <c r="D183" s="6" t="s">
@@ -10386,22 +10399,22 @@
       </c>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B184" s="24"/>
-      <c r="C184" s="24"/>
-      <c r="D184" s="18" t="s">
+      <c r="B184" s="23"/>
+      <c r="C184" s="23"/>
+      <c r="D184" s="17" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="185" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="29"/>
-      <c r="C185" s="29"/>
+      <c r="B185" s="28"/>
+      <c r="C185" s="28"/>
       <c r="D185" s="14" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B186" s="30"/>
-      <c r="C186" s="30" t="s">
+      <c r="B186" s="29"/>
+      <c r="C186" s="29" t="s">
         <v>361</v>
       </c>
       <c r="D186" s="6" t="s">
@@ -10409,15 +10422,15 @@
       </c>
     </row>
     <row r="187" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="29"/>
-      <c r="C187" s="29"/>
+      <c r="B187" s="28"/>
+      <c r="C187" s="28"/>
       <c r="D187" s="14" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B188" s="30"/>
-      <c r="C188" s="30" t="s">
+      <c r="B188" s="29"/>
+      <c r="C188" s="29" t="s">
         <v>363</v>
       </c>
       <c r="D188" s="6" t="s">
@@ -10425,17 +10438,17 @@
       </c>
     </row>
     <row r="189" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="29"/>
-      <c r="C189" s="29"/>
+      <c r="B189" s="28"/>
+      <c r="C189" s="28"/>
       <c r="D189" s="14" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B190" s="30" t="s">
+      <c r="B190" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="C190" s="30" t="s">
+      <c r="C190" s="29" t="s">
         <v>366</v>
       </c>
       <c r="D190" s="6" t="s">
@@ -10443,47 +10456,47 @@
       </c>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B191" s="24"/>
-      <c r="C191" s="24"/>
-      <c r="D191" s="18" t="s">
+      <c r="B191" s="23"/>
+      <c r="C191" s="23"/>
+      <c r="D191" s="17" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="192" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="29"/>
-      <c r="C192" s="29"/>
+      <c r="B192" s="28"/>
+      <c r="C192" s="28"/>
       <c r="D192" s="14" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B193" s="30" t="s">
+      <c r="B193" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="C193" s="30"/>
+      <c r="C193" s="29"/>
       <c r="D193" s="6" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B194" s="24"/>
-      <c r="C194" s="24"/>
-      <c r="D194" s="18" t="s">
+      <c r="B194" s="23"/>
+      <c r="C194" s="23"/>
+      <c r="D194" s="17" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="195" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B195" s="29"/>
-      <c r="C195" s="29"/>
+      <c r="B195" s="28"/>
+      <c r="C195" s="28"/>
       <c r="D195" s="14" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B196" s="30" t="s">
+      <c r="B196" s="29" t="s">
         <v>372</v>
       </c>
-      <c r="C196" s="30" t="s">
+      <c r="C196" s="29" t="s">
         <v>373</v>
       </c>
       <c r="D196" s="6" t="s">
@@ -10491,24 +10504,24 @@
       </c>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B197" s="24"/>
-      <c r="C197" s="24"/>
-      <c r="D197" s="18" t="s">
+      <c r="B197" s="23"/>
+      <c r="C197" s="23"/>
+      <c r="D197" s="17" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="198" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="29"/>
-      <c r="C198" s="29"/>
+      <c r="B198" s="28"/>
+      <c r="C198" s="28"/>
       <c r="D198" s="14" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B199" s="30" t="s">
+      <c r="B199" s="29" t="s">
         <v>376</v>
       </c>
-      <c r="C199" s="30" t="s">
+      <c r="C199" s="29" t="s">
         <v>377</v>
       </c>
       <c r="D199" s="6" t="s">
@@ -10516,24 +10529,24 @@
       </c>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B200" s="24"/>
-      <c r="C200" s="24"/>
-      <c r="D200" s="18" t="s">
+      <c r="B200" s="23"/>
+      <c r="C200" s="23"/>
+      <c r="D200" s="17" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="201" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="29"/>
-      <c r="C201" s="29"/>
+      <c r="B201" s="28"/>
+      <c r="C201" s="28"/>
       <c r="D201" s="14" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B202" s="30" t="s">
+      <c r="B202" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="C202" s="30" t="s">
+      <c r="C202" s="29" t="s">
         <v>380</v>
       </c>
       <c r="D202" s="6" t="s">
@@ -10541,22 +10554,22 @@
       </c>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B203" s="24"/>
-      <c r="C203" s="24"/>
-      <c r="D203" s="18" t="s">
+      <c r="B203" s="23"/>
+      <c r="C203" s="23"/>
+      <c r="D203" s="17" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="204" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="29"/>
-      <c r="C204" s="29"/>
+      <c r="B204" s="28"/>
+      <c r="C204" s="28"/>
       <c r="D204" s="14" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B205" s="30"/>
-      <c r="C205" s="30" t="s">
+      <c r="B205" s="29"/>
+      <c r="C205" s="29" t="s">
         <v>382</v>
       </c>
       <c r="D205" s="6" t="s">
@@ -10564,15 +10577,15 @@
       </c>
     </row>
     <row r="206" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="29"/>
-      <c r="C206" s="29"/>
+      <c r="B206" s="28"/>
+      <c r="C206" s="28"/>
       <c r="D206" s="14" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B207" s="30"/>
-      <c r="C207" s="30" t="s">
+      <c r="B207" s="29"/>
+      <c r="C207" s="29" t="s">
         <v>384</v>
       </c>
       <c r="D207" s="6" t="s">
@@ -10580,15 +10593,15 @@
       </c>
     </row>
     <row r="208" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B208" s="29"/>
-      <c r="C208" s="29"/>
+      <c r="B208" s="28"/>
+      <c r="C208" s="28"/>
       <c r="D208" s="14" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B209" s="30"/>
-      <c r="C209" s="30" t="s">
+      <c r="B209" s="29"/>
+      <c r="C209" s="29" t="s">
         <v>386</v>
       </c>
       <c r="D209" s="6" t="s">
@@ -10596,22 +10609,22 @@
       </c>
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B210" s="24"/>
-      <c r="C210" s="24"/>
-      <c r="D210" s="18" t="s">
+      <c r="B210" s="23"/>
+      <c r="C210" s="23"/>
+      <c r="D210" s="17" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="211" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="29"/>
-      <c r="C211" s="29"/>
+      <c r="B211" s="28"/>
+      <c r="C211" s="28"/>
       <c r="D211" s="14" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B212" s="30"/>
-      <c r="C212" s="30" t="s">
+      <c r="B212" s="29"/>
+      <c r="C212" s="29" t="s">
         <v>389</v>
       </c>
       <c r="D212" s="6" t="s">
@@ -10619,15 +10632,15 @@
       </c>
     </row>
     <row r="213" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="29"/>
-      <c r="C213" s="29"/>
+      <c r="B213" s="28"/>
+      <c r="C213" s="28"/>
       <c r="D213" s="14" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B214" s="30"/>
-      <c r="C214" s="30" t="s">
+      <c r="B214" s="29"/>
+      <c r="C214" s="29" t="s">
         <v>391</v>
       </c>
       <c r="D214" s="6" t="s">
@@ -10635,18 +10648,18 @@
       </c>
     </row>
     <row r="215" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="26"/>
-      <c r="C215" s="26"/>
+      <c r="B215" s="25"/>
+      <c r="C215" s="25"/>
       <c r="D215" s="14" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="216" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="21" t="s">
+      <c r="B216" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="C216" s="22"/>
-      <c r="D216" s="23"/>
+      <c r="C216" s="21"/>
+      <c r="D216" s="22"/>
     </row>
     <row r="217" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B217" s="8" t="s">
@@ -10660,10 +10673,10 @@
       </c>
     </row>
     <row r="218" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B218" s="25" t="s">
+      <c r="B218" s="24" t="s">
         <v>397</v>
       </c>
-      <c r="C218" s="25" t="s">
+      <c r="C218" s="24" t="s">
         <v>398</v>
       </c>
       <c r="D218" s="6" t="s">
@@ -10671,17 +10684,17 @@
       </c>
     </row>
     <row r="219" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B219" s="29"/>
-      <c r="C219" s="29"/>
+      <c r="B219" s="28"/>
+      <c r="C219" s="28"/>
       <c r="D219" s="14" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="220" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B220" s="30" t="s">
+      <c r="B220" s="29" t="s">
         <v>401</v>
       </c>
-      <c r="C220" s="30" t="s">
+      <c r="C220" s="29" t="s">
         <v>402</v>
       </c>
       <c r="D220" s="6" t="s">
@@ -10689,8 +10702,8 @@
       </c>
     </row>
     <row r="221" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B221" s="29"/>
-      <c r="C221" s="29"/>
+      <c r="B221" s="28"/>
+      <c r="C221" s="28"/>
       <c r="D221" s="14" t="s">
         <v>400</v>
       </c>
@@ -10740,10 +10753,10 @@
       </c>
     </row>
     <row r="226" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B226" s="25" t="s">
+      <c r="B226" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="C226" s="25" t="s">
+      <c r="C226" s="24" t="s">
         <v>417</v>
       </c>
       <c r="D226" s="6" t="s">
@@ -10751,17 +10764,17 @@
       </c>
     </row>
     <row r="227" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B227" s="29"/>
-      <c r="C227" s="29"/>
+      <c r="B227" s="28"/>
+      <c r="C227" s="28"/>
       <c r="D227" s="14" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="228" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B228" s="30" t="s">
+      <c r="B228" s="29" t="s">
         <v>419</v>
       </c>
-      <c r="C228" s="30" t="s">
+      <c r="C228" s="29" t="s">
         <v>420</v>
       </c>
       <c r="D228" s="6" t="s">
@@ -10769,8 +10782,8 @@
       </c>
     </row>
     <row r="229" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B229" s="29"/>
-      <c r="C229" s="29"/>
+      <c r="B229" s="28"/>
+      <c r="C229" s="28"/>
       <c r="D229" s="14" t="s">
         <v>400</v>
       </c>
@@ -10848,7 +10861,7 @@
       <c r="C236" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="D236" s="19" t="s">
+      <c r="D236" s="18" t="s">
         <v>442</v>
       </c>
     </row>
@@ -10864,8 +10877,8 @@
       </c>
     </row>
     <row r="238" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B238" s="25"/>
-      <c r="C238" s="25" t="s">
+      <c r="B238" s="24"/>
+      <c r="C238" s="24" t="s">
         <v>446</v>
       </c>
       <c r="D238" s="6" t="s">
@@ -10873,24 +10886,24 @@
       </c>
     </row>
     <row r="239" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B239" s="26"/>
-      <c r="C239" s="26"/>
+      <c r="B239" s="25"/>
+      <c r="C239" s="25"/>
       <c r="D239" s="11" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="240" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B240" s="21" t="s">
+      <c r="B240" s="20" t="s">
         <v>449</v>
       </c>
-      <c r="C240" s="22"/>
-      <c r="D240" s="23"/>
+      <c r="C240" s="21"/>
+      <c r="D240" s="22"/>
     </row>
     <row r="241" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B241" s="25" t="s">
+      <c r="B241" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="C241" s="25" t="s">
+      <c r="C241" s="24" t="s">
         <v>451</v>
       </c>
       <c r="D241" s="6" t="s">
@@ -10898,17 +10911,17 @@
       </c>
     </row>
     <row r="242" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B242" s="29"/>
-      <c r="C242" s="29"/>
+      <c r="B242" s="28"/>
+      <c r="C242" s="28"/>
       <c r="D242" s="14" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="243" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B243" s="30" t="s">
+      <c r="B243" s="29" t="s">
         <v>454</v>
       </c>
-      <c r="C243" s="30" t="s">
+      <c r="C243" s="29" t="s">
         <v>455</v>
       </c>
       <c r="D243" s="6" t="s">
@@ -10916,17 +10929,17 @@
       </c>
     </row>
     <row r="244" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B244" s="29"/>
-      <c r="C244" s="29"/>
+      <c r="B244" s="28"/>
+      <c r="C244" s="28"/>
       <c r="D244" s="14" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="245" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B245" s="30" t="s">
+      <c r="B245" s="29" t="s">
         <v>458</v>
       </c>
-      <c r="C245" s="30" t="s">
+      <c r="C245" s="29" t="s">
         <v>459</v>
       </c>
       <c r="D245" s="6" t="s">
@@ -10934,17 +10947,17 @@
       </c>
     </row>
     <row r="246" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B246" s="29"/>
-      <c r="C246" s="29"/>
+      <c r="B246" s="28"/>
+      <c r="C246" s="28"/>
       <c r="D246" s="14" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B247" s="30" t="s">
+      <c r="B247" s="29" t="s">
         <v>462</v>
       </c>
-      <c r="C247" s="30" t="s">
+      <c r="C247" s="29" t="s">
         <v>463</v>
       </c>
       <c r="D247" s="6" t="s">
@@ -10952,17 +10965,17 @@
       </c>
     </row>
     <row r="248" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B248" s="29"/>
-      <c r="C248" s="29"/>
+      <c r="B248" s="28"/>
+      <c r="C248" s="28"/>
       <c r="D248" s="14" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="249" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B249" s="30" t="s">
+      <c r="B249" s="29" t="s">
         <v>466</v>
       </c>
-      <c r="C249" s="30" t="s">
+      <c r="C249" s="29" t="s">
         <v>467</v>
       </c>
       <c r="D249" s="6" t="s">
@@ -10970,17 +10983,17 @@
       </c>
     </row>
     <row r="250" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B250" s="29"/>
-      <c r="C250" s="29"/>
+      <c r="B250" s="28"/>
+      <c r="C250" s="28"/>
       <c r="D250" s="14" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="251" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B251" s="30" t="s">
+      <c r="B251" s="29" t="s">
         <v>470</v>
       </c>
-      <c r="C251" s="30" t="s">
+      <c r="C251" s="29" t="s">
         <v>471</v>
       </c>
       <c r="D251" s="6" t="s">
@@ -10988,17 +11001,17 @@
       </c>
     </row>
     <row r="252" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B252" s="29"/>
-      <c r="C252" s="29"/>
+      <c r="B252" s="28"/>
+      <c r="C252" s="28"/>
       <c r="D252" s="14" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="253" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B253" s="30" t="s">
+      <c r="B253" s="29" t="s">
         <v>473</v>
       </c>
-      <c r="C253" s="30" t="s">
+      <c r="C253" s="29" t="s">
         <v>474</v>
       </c>
       <c r="D253" s="6" t="s">
@@ -11006,17 +11019,17 @@
       </c>
     </row>
     <row r="254" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B254" s="29"/>
-      <c r="C254" s="29"/>
+      <c r="B254" s="28"/>
+      <c r="C254" s="28"/>
       <c r="D254" s="14" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="255" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B255" s="30" t="s">
+      <c r="B255" s="29" t="s">
         <v>476</v>
       </c>
-      <c r="C255" s="30" t="s">
+      <c r="C255" s="29" t="s">
         <v>477</v>
       </c>
       <c r="D255" s="6" t="s">
@@ -11024,17 +11037,17 @@
       </c>
     </row>
     <row r="256" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B256" s="29"/>
-      <c r="C256" s="29"/>
+      <c r="B256" s="28"/>
+      <c r="C256" s="28"/>
       <c r="D256" s="14" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B257" s="30" t="s">
+      <c r="B257" s="29" t="s">
         <v>479</v>
       </c>
-      <c r="C257" s="30" t="s">
+      <c r="C257" s="29" t="s">
         <v>480</v>
       </c>
       <c r="D257" s="6" t="s">
@@ -11042,17 +11055,17 @@
       </c>
     </row>
     <row r="258" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B258" s="29"/>
-      <c r="C258" s="29"/>
+      <c r="B258" s="28"/>
+      <c r="C258" s="28"/>
       <c r="D258" s="14" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B259" s="30" t="s">
+      <c r="B259" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="C259" s="30" t="s">
+      <c r="C259" s="29" t="s">
         <v>483</v>
       </c>
       <c r="D259" s="6" t="s">
@@ -11060,17 +11073,17 @@
       </c>
     </row>
     <row r="260" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B260" s="29"/>
-      <c r="C260" s="29"/>
+      <c r="B260" s="28"/>
+      <c r="C260" s="28"/>
       <c r="D260" s="14" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B261" s="30" t="s">
+      <c r="B261" s="29" t="s">
         <v>485</v>
       </c>
-      <c r="C261" s="30" t="s">
+      <c r="C261" s="29" t="s">
         <v>486</v>
       </c>
       <c r="D261" s="6" t="s">
@@ -11078,17 +11091,17 @@
       </c>
     </row>
     <row r="262" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B262" s="29"/>
-      <c r="C262" s="29"/>
+      <c r="B262" s="28"/>
+      <c r="C262" s="28"/>
       <c r="D262" s="14" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="263" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B263" s="30" t="s">
+      <c r="B263" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="C263" s="30" t="s">
+      <c r="C263" s="29" t="s">
         <v>489</v>
       </c>
       <c r="D263" s="6" t="s">
@@ -11096,17 +11109,17 @@
       </c>
     </row>
     <row r="264" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B264" s="29"/>
-      <c r="C264" s="29"/>
+      <c r="B264" s="28"/>
+      <c r="C264" s="28"/>
       <c r="D264" s="14" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="265" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B265" s="30" t="s">
+      <c r="B265" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="C265" s="30" t="s">
+      <c r="C265" s="29" t="s">
         <v>492</v>
       </c>
       <c r="D265" s="6" t="s">
@@ -11114,17 +11127,17 @@
       </c>
     </row>
     <row r="266" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B266" s="29"/>
-      <c r="C266" s="29"/>
+      <c r="B266" s="28"/>
+      <c r="C266" s="28"/>
       <c r="D266" s="14" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="267" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B267" s="30" t="s">
+      <c r="B267" s="29" t="s">
         <v>494</v>
       </c>
-      <c r="C267" s="30" t="s">
+      <c r="C267" s="29" t="s">
         <v>495</v>
       </c>
       <c r="D267" s="6" t="s">
@@ -11132,15 +11145,15 @@
       </c>
     </row>
     <row r="268" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B268" s="29"/>
-      <c r="C268" s="29"/>
+      <c r="B268" s="28"/>
+      <c r="C268" s="28"/>
       <c r="D268" s="14" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="269" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B269" s="30"/>
-      <c r="C269" s="30" t="s">
+      <c r="B269" s="29"/>
+      <c r="C269" s="29" t="s">
         <v>497</v>
       </c>
       <c r="D269" s="6" t="s">
@@ -11148,15 +11161,15 @@
       </c>
     </row>
     <row r="270" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B270" s="29"/>
-      <c r="C270" s="29"/>
+      <c r="B270" s="28"/>
+      <c r="C270" s="28"/>
       <c r="D270" s="11" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="271" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B271" s="30"/>
-      <c r="C271" s="30" t="s">
+      <c r="B271" s="29"/>
+      <c r="C271" s="29" t="s">
         <v>500</v>
       </c>
       <c r="D271" s="6" t="s">
@@ -11164,14 +11177,14 @@
       </c>
     </row>
     <row r="272" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B272" s="29"/>
-      <c r="C272" s="29"/>
+      <c r="B272" s="28"/>
+      <c r="C272" s="28"/>
       <c r="D272" s="11" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B273" s="20"/>
+      <c r="B273" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="131">
@@ -11332,578 +11345,578 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>502</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>503</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="32" t="s">
         <v>504</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="32" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>505</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>506</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="36" t="s">
         <v>507</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="36" t="s">
         <v>508</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="37" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>510</v>
       </c>
-      <c r="C5" s="35"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="39"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="40">
+      <c r="B6" s="39">
         <v>1000</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="40" t="s">
         <v>511</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="41" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="40">
+      <c r="B7" s="39">
         <v>1001</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="40" t="s">
         <v>513</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="41" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="40">
+      <c r="B8" s="39">
         <v>1002</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="40" t="s">
         <v>515</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="41" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="40">
+      <c r="B9" s="39">
         <v>1003</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="40" t="s">
         <v>517</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="41" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="40">
+      <c r="B10" s="39">
         <v>1004</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="40" t="s">
         <v>519</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="41" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="40">
+      <c r="B11" s="39">
         <v>1005</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="40" t="s">
         <v>521</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="41" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="40">
+      <c r="B12" s="39">
         <v>1006</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="40" t="s">
         <v>523</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="41" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="40">
+      <c r="B13" s="39">
         <v>1007</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="40" t="s">
         <v>525</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="41" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="40">
+      <c r="B14" s="39">
         <v>1008</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="40" t="s">
         <v>527</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="41" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="17">
+      <c r="B15" s="16">
         <v>1009</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="36" t="s">
         <v>507</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="36" t="s">
         <v>529</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="37" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>531</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="39"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="38"/>
     </row>
     <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>532</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="36" t="s">
         <v>507</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38" t="s">
+      <c r="D17" s="36"/>
+      <c r="E17" s="37" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="39"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="38"/>
     </row>
     <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="40">
+      <c r="B19" s="39">
         <v>1100</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="40" t="s">
         <v>534</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="40" t="s">
         <v>535</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="41" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="40">
+      <c r="B20" s="39">
         <v>1101</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="40" t="s">
         <v>534</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="40" t="s">
         <v>537</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="E20" s="41" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="40">
+      <c r="B21" s="39">
         <v>1102</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="40" t="s">
         <v>534</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="40" t="s">
         <v>539</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="41" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="40">
+      <c r="B22" s="39">
         <v>1103</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="40" t="s">
         <v>534</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="40" t="s">
         <v>541</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="E22" s="41" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="40">
+      <c r="B23" s="39">
         <v>1104</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="40" t="s">
         <v>534</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="40" t="s">
         <v>543</v>
       </c>
-      <c r="E23" s="42" t="s">
+      <c r="E23" s="41" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="40">
+      <c r="B24" s="39">
         <v>1105</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="40" t="s">
         <v>545</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="41" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="40">
+      <c r="B25" s="39">
         <v>1106</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="40" t="s">
         <v>547</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="41" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="40">
+      <c r="B26" s="39">
         <v>1107</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="40" t="s">
         <v>549</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="41" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="40">
+      <c r="B27" s="39">
         <v>1108</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="40" t="s">
         <v>551</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="E27" s="41" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="40">
+      <c r="B28" s="39">
         <v>1109</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="40" t="s">
         <v>553</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E28" s="41" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="40">
+      <c r="B29" s="39">
         <v>1110</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="40" t="s">
         <v>555</v>
       </c>
-      <c r="E29" s="42" t="s">
+      <c r="E29" s="41" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="40">
+      <c r="B30" s="39">
         <v>1111</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="40" t="s">
         <v>557</v>
       </c>
-      <c r="E30" s="42" t="s">
+      <c r="E30" s="41" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="40">
+      <c r="B31" s="39">
         <v>1112</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="D31" s="40" t="s">
         <v>559</v>
       </c>
-      <c r="E31" s="42" t="s">
+      <c r="E31" s="41" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="40">
+      <c r="B32" s="39">
         <v>1113</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="40" t="s">
         <v>561</v>
       </c>
-      <c r="E32" s="42" t="s">
+      <c r="E32" s="41" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="17">
+      <c r="B33" s="16">
         <v>1114</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="36" t="s">
         <v>563</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="36" t="s">
         <v>564</v>
       </c>
-      <c r="E33" s="38" t="s">
+      <c r="E33" s="37" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="33" t="s">
         <v>566</v>
       </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="39"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="38"/>
     </row>
     <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="40">
+      <c r="B35" s="39">
         <v>1200</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="40" t="s">
         <v>563</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="40" t="s">
         <v>567</v>
       </c>
-      <c r="E35" s="42" t="s">
+      <c r="E35" s="41" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="40">
+      <c r="B36" s="39">
         <v>1202</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="D36" s="41" t="s">
+      <c r="D36" s="40" t="s">
         <v>569</v>
       </c>
-      <c r="E36" s="42" t="s">
+      <c r="E36" s="41" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="43"/>
-      <c r="C37" s="17"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="16"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="44" t="s">
+      <c r="E37" s="43" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="43">
+      <c r="B38" s="42">
         <v>1203</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="16" t="s">
         <v>507</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="E38" s="44" t="s">
+      <c r="E38" s="43" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="43"/>
-      <c r="C39" s="17"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="16"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="44" t="s">
+      <c r="E39" s="43" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="43"/>
-      <c r="C40" s="17"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="16"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="44" t="s">
+      <c r="E40" s="43" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="45">
+      <c r="B41" s="44">
         <v>1204</v>
       </c>
-      <c r="C41" s="46" t="s">
+      <c r="C41" s="45" t="s">
         <v>563</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="E41" s="47" t="s">
+      <c r="E41" s="46" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="43"/>
-      <c r="C42" s="17"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="16"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="44" t="s">
+      <c r="E42" s="43" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="43">
+      <c r="B43" s="42">
         <v>1206</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="16" t="s">
         <v>507</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="E43" s="44" t="s">
+      <c r="E43" s="43" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="48"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="50" t="s">
+      <c r="B44" s="47"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="49" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="33" t="s">
         <v>582</v>
       </c>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="42"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="41"/>
     </row>
     <row r="46" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="40">
+      <c r="B46" s="39">
         <v>1300</v>
       </c>
-      <c r="C46" s="41" t="s">
+      <c r="C46" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="D46" s="41" t="s">
+      <c r="D46" s="40" t="s">
         <v>583</v>
       </c>
-      <c r="E46" s="42" t="s">
+      <c r="E46" s="41" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="40">
+      <c r="B47" s="39">
         <v>1555</v>
       </c>
-      <c r="C47" s="41" t="s">
+      <c r="C47" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="D47" s="41" t="s">
+      <c r="D47" s="40" t="s">
         <v>585</v>
       </c>
-      <c r="E47" s="42" t="s">
+      <c r="E47" s="41" t="s">
         <v>586</v>
       </c>
     </row>
